--- a/public/history.xlsx
+++ b/public/history.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>date</t>
   </si>
@@ -107,6 +107,93 @@
   </si>
   <si>
     <t>2023-05-03T16:09:32.818Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:09:41.112Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:09:46.202Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:09:51.266Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:09:56.408Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:34:19.210Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:34:27.483Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:34:32.788Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:34:38.250Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:35:27.953Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:35:33.029Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:35:38.070Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:35:43.112Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:38:42.172Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:38:47.208Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:43:29.398Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:43:34.488Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:44:32.582Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:44:37.622Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:44:42.678Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:44:47.732Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:44:52.772Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:44:57.873Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:45:02.920Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:45:08.023Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:45:13.123Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:45:18.170Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:45:23.272Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:45:28.391Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T16:45:33.502Z</t>
   </si>
 </sst>
 </file>
@@ -483,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E57"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -965,6 +1052,499 @@
         <v>94</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>51</v>
+      </c>
+      <c r="C30">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>44</v>
+      </c>
+      <c r="E30">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>55</v>
+      </c>
+      <c r="E31">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>98</v>
+      </c>
+      <c r="D33">
+        <v>69</v>
+      </c>
+      <c r="E33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>47</v>
+      </c>
+      <c r="E35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>74</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>48</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>33</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>81</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>88</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>93</v>
+      </c>
+      <c r="E42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>54</v>
+      </c>
+      <c r="E43">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>49</v>
+      </c>
+      <c r="D47">
+        <v>30</v>
+      </c>
+      <c r="E47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+      <c r="E48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <v>62</v>
+      </c>
+      <c r="E50">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>88</v>
+      </c>
+      <c r="C52">
+        <v>66</v>
+      </c>
+      <c r="D52">
+        <v>53</v>
+      </c>
+      <c r="E52">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>49</v>
+      </c>
+      <c r="D53">
+        <v>59</v>
+      </c>
+      <c r="E53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <v>97</v>
+      </c>
+      <c r="D54">
+        <v>62</v>
+      </c>
+      <c r="E54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>90</v>
+      </c>
+      <c r="C55">
+        <v>77</v>
+      </c>
+      <c r="D55">
+        <v>52</v>
+      </c>
+      <c r="E55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>81</v>
+      </c>
+      <c r="D56">
+        <v>51</v>
+      </c>
+      <c r="E56">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>95</v>
+      </c>
+      <c r="C57">
+        <v>59</v>
+      </c>
+      <c r="D57">
+        <v>60</v>
+      </c>
+      <c r="E57">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/history.xlsx
+++ b/public/history.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>date</t>
   </si>
@@ -194,6 +194,204 @@
   </si>
   <si>
     <t>2023-05-03T16:45:33.502Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T13:27:54.627Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T13:27:59.744Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T13:28:04.786Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T13:28:09.883Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T13:28:14.957Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T13:28:20.050Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:50:14.234Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:50:19.648Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:50:35.032Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:50:40.358Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:50:45.527Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:50:50.573Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:50:55.751Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:00.791Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:05.834Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:10.933Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:16.232Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:24.218Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:29.435Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:34.583Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:42.781Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:51:48.078Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:03.283Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:08.419Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:13.495Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:18.540Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:23.825Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:31.902Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:37.146Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:42.223Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:47.297Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:52.490Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:52:57.611Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:02.937Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:08.024Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:13.142Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:18.302Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:23.366Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:28.502Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:33.863Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:39.182Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:44.251Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:49.529Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:53:54.670Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:03.009Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:08.276Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:13.696Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:18.811Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:23.910Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:29.014Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:34.136Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:39.241Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:44.610Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:49.789Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:54:54.966Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:00.211Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:05.309Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:10.489Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:15.572Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:20.640Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:25.754Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:30.833Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:36.027Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:41.205Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:46.470Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T15:55:51.600Z</t>
   </si>
 </sst>
 </file>
@@ -570,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E123"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -1545,6 +1743,1128 @@
         <v>58</v>
       </c>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>43</v>
+      </c>
+      <c r="C58">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>70</v>
+      </c>
+      <c r="E58">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>74</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>75</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>64</v>
+      </c>
+      <c r="E60">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>83</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>57</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>93</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>97</v>
+      </c>
+      <c r="C63">
+        <v>76</v>
+      </c>
+      <c r="D63">
+        <v>65</v>
+      </c>
+      <c r="E63">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>49</v>
+      </c>
+      <c r="C64">
+        <v>38</v>
+      </c>
+      <c r="D64">
+        <v>81</v>
+      </c>
+      <c r="E64">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>36</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>53</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>83</v>
+      </c>
+      <c r="D66">
+        <v>58</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>91</v>
+      </c>
+      <c r="E67">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>64</v>
+      </c>
+      <c r="C68">
+        <v>70</v>
+      </c>
+      <c r="D68">
+        <v>95</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>72</v>
+      </c>
+      <c r="E69">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>98</v>
+      </c>
+      <c r="C70">
+        <v>79</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>64</v>
+      </c>
+      <c r="C71">
+        <v>56</v>
+      </c>
+      <c r="D71">
+        <v>91</v>
+      </c>
+      <c r="E71">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>46</v>
+      </c>
+      <c r="D72">
+        <v>86</v>
+      </c>
+      <c r="E72">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>61</v>
+      </c>
+      <c r="D73">
+        <v>74</v>
+      </c>
+      <c r="E73">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>52</v>
+      </c>
+      <c r="C74">
+        <v>64</v>
+      </c>
+      <c r="D74">
+        <v>78</v>
+      </c>
+      <c r="E74">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>58</v>
+      </c>
+      <c r="C75">
+        <v>94</v>
+      </c>
+      <c r="D75">
+        <v>93</v>
+      </c>
+      <c r="E75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <v>17</v>
+      </c>
+      <c r="E76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>59</v>
+      </c>
+      <c r="D77">
+        <v>98</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <v>89</v>
+      </c>
+      <c r="D78">
+        <v>62</v>
+      </c>
+      <c r="E78">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>47</v>
+      </c>
+      <c r="C79">
+        <v>48</v>
+      </c>
+      <c r="D79">
+        <v>36</v>
+      </c>
+      <c r="E79">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>54</v>
+      </c>
+      <c r="D80">
+        <v>97</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>58</v>
+      </c>
+      <c r="E81">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>59</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>56</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>55</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>38</v>
+      </c>
+      <c r="C84">
+        <v>87</v>
+      </c>
+      <c r="D84">
+        <v>63</v>
+      </c>
+      <c r="E84">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>39</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>39</v>
+      </c>
+      <c r="E85">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>66</v>
+      </c>
+      <c r="C86">
+        <v>31</v>
+      </c>
+      <c r="D86">
+        <v>96</v>
+      </c>
+      <c r="E86">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>54</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>30</v>
+      </c>
+      <c r="E87">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>51</v>
+      </c>
+      <c r="C88">
+        <v>29</v>
+      </c>
+      <c r="D88">
+        <v>34</v>
+      </c>
+      <c r="E88">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>97</v>
+      </c>
+      <c r="C89">
+        <v>56</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>51</v>
+      </c>
+      <c r="C90">
+        <v>82</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>58</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>97</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+      <c r="D92">
+        <v>26</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>55</v>
+      </c>
+      <c r="C93">
+        <v>15</v>
+      </c>
+      <c r="D93">
+        <v>17</v>
+      </c>
+      <c r="E93">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>66</v>
+      </c>
+      <c r="C94">
+        <v>47</v>
+      </c>
+      <c r="D94">
+        <v>29</v>
+      </c>
+      <c r="E94">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>59</v>
+      </c>
+      <c r="C95">
+        <v>88</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+      <c r="E95">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>66</v>
+      </c>
+      <c r="D96">
+        <v>55</v>
+      </c>
+      <c r="E96">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>89</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>64</v>
+      </c>
+      <c r="E97">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>54</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>79</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>48</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>36</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>74</v>
+      </c>
+      <c r="C100">
+        <v>50</v>
+      </c>
+      <c r="D100">
+        <v>44</v>
+      </c>
+      <c r="E100">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>84</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+      <c r="D101">
+        <v>51</v>
+      </c>
+      <c r="E101">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>89</v>
+      </c>
+      <c r="C102">
+        <v>59</v>
+      </c>
+      <c r="D102">
+        <v>25</v>
+      </c>
+      <c r="E102">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>90</v>
+      </c>
+      <c r="C103">
+        <v>42</v>
+      </c>
+      <c r="D103">
+        <v>61</v>
+      </c>
+      <c r="E103">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>90</v>
+      </c>
+      <c r="C104">
+        <v>90</v>
+      </c>
+      <c r="D104">
+        <v>82</v>
+      </c>
+      <c r="E104">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>43</v>
+      </c>
+      <c r="C105">
+        <v>63</v>
+      </c>
+      <c r="D105">
+        <v>42</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>33</v>
+      </c>
+      <c r="D106">
+        <v>83</v>
+      </c>
+      <c r="E106">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>94</v>
+      </c>
+      <c r="C107">
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>80</v>
+      </c>
+      <c r="D108">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>76</v>
+      </c>
+      <c r="C109">
+        <v>58</v>
+      </c>
+      <c r="D109">
+        <v>77</v>
+      </c>
+      <c r="E109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>33</v>
+      </c>
+      <c r="C110">
+        <v>87</v>
+      </c>
+      <c r="D110">
+        <v>56</v>
+      </c>
+      <c r="E110">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>36</v>
+      </c>
+      <c r="C111">
+        <v>63</v>
+      </c>
+      <c r="D111">
+        <v>91</v>
+      </c>
+      <c r="E111">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>31</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+      <c r="D112">
+        <v>38</v>
+      </c>
+      <c r="E112">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>62</v>
+      </c>
+      <c r="C113">
+        <v>43</v>
+      </c>
+      <c r="D113">
+        <v>92</v>
+      </c>
+      <c r="E113">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>33</v>
+      </c>
+      <c r="C114">
+        <v>71</v>
+      </c>
+      <c r="D114">
+        <v>78</v>
+      </c>
+      <c r="E114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>58</v>
+      </c>
+      <c r="C115">
+        <v>46</v>
+      </c>
+      <c r="D115">
+        <v>9</v>
+      </c>
+      <c r="E115">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>91</v>
+      </c>
+      <c r="C116">
+        <v>86</v>
+      </c>
+      <c r="D116">
+        <v>23</v>
+      </c>
+      <c r="E116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>33</v>
+      </c>
+      <c r="D117">
+        <v>99</v>
+      </c>
+      <c r="E117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>96</v>
+      </c>
+      <c r="C118">
+        <v>88</v>
+      </c>
+      <c r="D118">
+        <v>82</v>
+      </c>
+      <c r="E118">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>31</v>
+      </c>
+      <c r="C119">
+        <v>76</v>
+      </c>
+      <c r="D119">
+        <v>69</v>
+      </c>
+      <c r="E119">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>38</v>
+      </c>
+      <c r="C120">
+        <v>65</v>
+      </c>
+      <c r="D120">
+        <v>65</v>
+      </c>
+      <c r="E120">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>49</v>
+      </c>
+      <c r="C121">
+        <v>13</v>
+      </c>
+      <c r="D121">
+        <v>63</v>
+      </c>
+      <c r="E121">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>97</v>
+      </c>
+      <c r="C122">
+        <v>78</v>
+      </c>
+      <c r="D122">
+        <v>95</v>
+      </c>
+      <c r="E122">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>29</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+      <c r="D123">
+        <v>98</v>
+      </c>
+      <c r="E123">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
